--- a/data/trans_dic/CoTrAQ_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/CoTrAQ_R-Habitat-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6709159262822942</v>
+        <v>0.6660868361610472</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5165352959385668</v>
+        <v>0.5190908016861076</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6446018120935003</v>
+        <v>0.6412348575378238</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4119134543774786</v>
+        <v>0.4134709311190158</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6814450164080791</v>
+        <v>0.6762203962702047</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4935258664898854</v>
+        <v>0.4961529783860559</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7825309756878696</v>
+        <v>0.7795841057666534</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6502229601509313</v>
+        <v>0.6459944368256992</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7916606804410146</v>
+        <v>0.7884780290476046</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5627447922997607</v>
+        <v>0.5582860231404048</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7693524593156923</v>
+        <v>0.7666107631424643</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5934696144718067</v>
+        <v>0.5928495664772083</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6845635016736392</v>
+        <v>0.6741922296329086</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5100130553304811</v>
+        <v>0.5112737831642228</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6091001386382431</v>
+        <v>0.606832222560451</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.454345185580383</v>
+        <v>0.4532053713143285</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6672327381266516</v>
+        <v>0.6656602727775807</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5024154995920963</v>
+        <v>0.5098891321900102</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.77523979650658</v>
+        <v>0.7690724554107181</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6142745962189584</v>
+        <v>0.6164969200290756</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.727719976835516</v>
+        <v>0.7304733849380943</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5748322041897491</v>
+        <v>0.5728683512613489</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7402181466233576</v>
+        <v>0.7420051646300123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5825941566234376</v>
+        <v>0.5867854411928962</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6471690105384368</v>
+        <v>0.6539349130637773</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3500487890850189</v>
+        <v>0.3555287653350397</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5788779525663695</v>
+        <v>0.5743478556879698</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3515955370906884</v>
+        <v>0.356886271247642</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6378711644498929</v>
+        <v>0.6344914919944999</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3671772709075256</v>
+        <v>0.3679769087096434</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7545107731452936</v>
+        <v>0.7648079200041299</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4550520843513611</v>
+        <v>0.4656774996666372</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7246849043408036</v>
+        <v>0.7116865265492065</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4718055001231605</v>
+        <v>0.4771915098575875</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7244069395259418</v>
+        <v>0.7255529104720367</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4485174050043547</v>
+        <v>0.4509029919822606</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6373009869513154</v>
+        <v>0.6365273064768036</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5763545539752829</v>
+        <v>0.5743351092149158</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5539701311565968</v>
+        <v>0.5519668838525453</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5029272642029879</v>
+        <v>0.5023470806562147</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6163156852829325</v>
+        <v>0.6171884783785795</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5554711806695661</v>
+        <v>0.5574005025237726</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7264826563817036</v>
+        <v>0.7315826487536893</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6695277095237786</v>
+        <v>0.6750473043690687</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6733940724371303</v>
+        <v>0.6698072263645829</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6101400509061622</v>
+        <v>0.6169374848159667</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6893233636266319</v>
+        <v>0.6917714783097412</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6282597480666533</v>
+        <v>0.6334062429155592</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.685137028801995</v>
+        <v>0.6847431673637357</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.517802795942401</v>
+        <v>0.5133715444175843</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6202432212112061</v>
+        <v>0.6217215309081292</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4660970683113707</v>
+        <v>0.4678504071012143</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6682922689137329</v>
+        <v>0.665592967169786</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.504064522178588</v>
+        <v>0.5051413142133426</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7355721422975993</v>
+        <v>0.7344512556434565</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5710816611873898</v>
+        <v>0.5686065816856961</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.686219647249186</v>
+        <v>0.6875571341638983</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5274416857564889</v>
+        <v>0.5308504896066265</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.709297008289367</v>
+        <v>0.7074078934879804</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.544861890790082</v>
+        <v>0.5438345952080162</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>179122</v>
+        <v>177833</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>124651</v>
+        <v>125268</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>99632</v>
+        <v>99111</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>67649</v>
+        <v>67905</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>287259</v>
+        <v>285057</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>200151</v>
+        <v>201216</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>208921</v>
+        <v>208134</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>156912</v>
+        <v>155892</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>122361</v>
+        <v>121870</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>92421</v>
+        <v>91688</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>324316</v>
+        <v>323160</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>240683</v>
+        <v>240432</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>272568</v>
+        <v>268438</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>210761</v>
+        <v>211282</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>157058</v>
+        <v>156473</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>123923</v>
+        <v>123612</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>437715</v>
+        <v>436683</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>344656</v>
+        <v>349782</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>308672</v>
+        <v>306216</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>253847</v>
+        <v>254765</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>187644</v>
+        <v>188354</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>156786</v>
+        <v>156250</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>485594</v>
+        <v>486767</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>399658</v>
+        <v>402533</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>198482</v>
+        <v>200557</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>126987</v>
+        <v>128975</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>118392</v>
+        <v>117465</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>94763</v>
+        <v>96189</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>326087</v>
+        <v>324359</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>232164</v>
+        <v>232670</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>231402</v>
+        <v>234560</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>165079</v>
+        <v>168934</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>148212</v>
+        <v>145553</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>127163</v>
+        <v>128615</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>370325</v>
+        <v>370911</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>283595</v>
+        <v>285103</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>257494</v>
+        <v>257182</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>229966</v>
+        <v>229160</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>157777</v>
+        <v>157206</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>163690</v>
+        <v>163501</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>424550</v>
+        <v>425151</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>402425</v>
+        <v>403823</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>293527</v>
+        <v>295588</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>267142</v>
+        <v>269345</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>191790</v>
+        <v>190768</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>198585</v>
+        <v>200797</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>474841</v>
+        <v>476527</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>455158</v>
+        <v>458887</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>942664</v>
+        <v>942122</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>733383</v>
+        <v>727107</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>559301</v>
+        <v>560634</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>481004</v>
+        <v>482813</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1522117</v>
+        <v>1515969</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1234110</v>
+        <v>1236747</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1012056</v>
+        <v>1010514</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>808844</v>
+        <v>805339</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>618795</v>
+        <v>620001</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>544310</v>
+        <v>547828</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1615510</v>
+        <v>1611207</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1333995</v>
+        <v>1331480</v>
       </c>
     </row>
     <row r="24">
